--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H2">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1394.659940308816</v>
+        <v>438.2996028443211</v>
       </c>
       <c r="R2">
-        <v>12551.93946277934</v>
+        <v>3944.69642559889</v>
       </c>
       <c r="S2">
-        <v>0.07152013809551983</v>
+        <v>0.02856871898020496</v>
       </c>
       <c r="T2">
-        <v>0.07152013809551983</v>
+        <v>0.02856871898020496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H3">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>1210.390343410261</v>
+        <v>577.5426814821137</v>
       </c>
       <c r="R3">
-        <v>10893.51309069235</v>
+        <v>5197.884133339025</v>
       </c>
       <c r="S3">
-        <v>0.06207053204024573</v>
+        <v>0.0376446943124359</v>
       </c>
       <c r="T3">
-        <v>0.06207053204024572</v>
+        <v>0.0376446943124359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H4">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1692.338955837525</v>
+        <v>807.5064245615484</v>
       </c>
       <c r="R4">
-        <v>15231.05060253773</v>
+        <v>7267.557821053936</v>
       </c>
       <c r="S4">
-        <v>0.08678553984932476</v>
+        <v>0.05263391517651669</v>
       </c>
       <c r="T4">
-        <v>0.08678553984932477</v>
+        <v>0.05263391517651669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J5">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>3487.984978102181</v>
+        <v>2297.305337931197</v>
       </c>
       <c r="R5">
-        <v>31391.86480291963</v>
+        <v>20675.74804138078</v>
       </c>
       <c r="S5">
-        <v>0.1788688124602828</v>
+        <v>0.149740200961105</v>
       </c>
       <c r="T5">
-        <v>0.1788688124602828</v>
+        <v>0.149740200961105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J6">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>3027.134582011515</v>
@@ -818,10 +818,10 @@
         <v>27244.21123810363</v>
       </c>
       <c r="S6">
-        <v>0.155235751082983</v>
+        <v>0.1973110553318579</v>
       </c>
       <c r="T6">
-        <v>0.155235751082983</v>
+        <v>0.1973110553318578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J7">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>4232.467489179739</v>
@@ -880,10 +880,10 @@
         <v>38092.20740261766</v>
       </c>
       <c r="S7">
-        <v>0.2170469306259026</v>
+        <v>0.2758756191120202</v>
       </c>
       <c r="T7">
-        <v>0.2170469306259026</v>
+        <v>0.2758756191120201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>1445.896353821483</v>
+        <v>952.3164327206111</v>
       </c>
       <c r="R8">
-        <v>13013.06718439335</v>
+        <v>8570.8478944855</v>
       </c>
       <c r="S8">
-        <v>0.07414761398697889</v>
+        <v>0.06207274743137246</v>
       </c>
       <c r="T8">
-        <v>0.07414761398697889</v>
+        <v>0.06207274743137244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>1254.857140192978</v>
@@ -1004,10 +1004,10 @@
         <v>11293.7142617368</v>
       </c>
       <c r="S9">
-        <v>0.06435085239264728</v>
+        <v>0.08179259293376595</v>
       </c>
       <c r="T9">
-        <v>0.06435085239264726</v>
+        <v>0.08179259293376592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>1754.511372237245</v>
@@ -1066,10 +1066,10 @@
         <v>15790.6023501352</v>
       </c>
       <c r="S10">
-        <v>0.08997382946611515</v>
+        <v>0.1143604557607211</v>
       </c>
       <c r="T10">
-        <v>0.08997382946611515</v>
+        <v>0.1143604557607211</v>
       </c>
     </row>
   </sheetData>
